--- a/results/by_outcome/full_results_education_observed_Sisters_MI.xlsx
+++ b/results/by_outcome/full_results_education_observed_Sisters_MI.xlsx
@@ -483,10 +483,10 @@
         <v>#NUM!</v>
       </c>
       <c r="H2" t="n">
-        <v>0.578406479478975</v>
+        <v>0.580913366522763</v>
       </c>
       <c r="I2" t="n">
-        <v>0.205086687173386</v>
+        <v>0.193973483700182</v>
       </c>
       <c r="J2" t="e">
         <v>#NUM!</v>
@@ -504,7 +504,7 @@
         <v>#NUM!</v>
       </c>
       <c r="O2" t="n">
-        <v>0.421798281134892</v>
+        <v>0.419292173058898</v>
       </c>
     </row>
     <row r="3">
@@ -524,10 +524,10 @@
         <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>0.568499542485813</v>
+        <v>0.567348953574101</v>
       </c>
       <c r="G3" t="n">
-        <v>0.244701172953136</v>
+        <v>0.239078265098996</v>
       </c>
       <c r="H3" t="e">
         <v>#NUM!</v>
@@ -562,13 +562,13 @@
         <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>0.60372061753408</v>
+        <v>0.603975554745592</v>
       </c>
       <c r="D4" t="n">
-        <v>0.396633520548998</v>
+        <v>0.396378393439593</v>
       </c>
       <c r="E4" t="n">
-        <v>1.00035413808308</v>
+        <v>1.00035394818519</v>
       </c>
       <c r="F4" t="e">
         <v>#NUM!</v>
@@ -583,19 +583,19 @@
         <v>#NUM!</v>
       </c>
       <c r="J4" t="n">
-        <v>0.396493107152973</v>
+        <v>0.396238145549144</v>
       </c>
       <c r="K4" t="n">
-        <v>0.24461454594581</v>
+        <v>0.238993672765317</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.00990342987784226</v>
+        <v>-0.0135596136053715</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0253051739819182</v>
+        <v>0.0230540275097533</v>
       </c>
       <c r="N4" t="n">
-        <v>0.234711116067967</v>
+        <v>0.225434059159945</v>
       </c>
       <c r="O4" t="e">
         <v>#NUM!</v>
@@ -640,13 +640,13 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0.396493107152973</v>
+        <v>0.396238145549144</v>
       </c>
       <c r="D2" t="n">
-        <v>0.333479089447097</v>
+        <v>0.337188975695219</v>
       </c>
       <c r="E2" t="n">
-        <v>0.45950712485885</v>
+        <v>0.45528731540307</v>
       </c>
     </row>
     <row r="3">
@@ -657,13 +657,13 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.234711116067967</v>
+        <v>0.225434059159945</v>
       </c>
       <c r="D3" t="n">
-        <v>0.166489667952194</v>
+        <v>0.165366293271668</v>
       </c>
       <c r="E3" t="n">
-        <v>0.302932564183741</v>
+        <v>0.285501825048223</v>
       </c>
     </row>
     <row r="4">
@@ -674,13 +674,13 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>0.421798281134892</v>
+        <v>0.419292173058898</v>
       </c>
       <c r="D4" t="n">
-        <v>0.350375780976563</v>
+        <v>0.355470570506988</v>
       </c>
       <c r="E4" t="n">
-        <v>0.49322078129322</v>
+        <v>0.483113775610807</v>
       </c>
     </row>
   </sheetData>

--- a/results/by_outcome/full_results_education_observed_Sisters_MI.xlsx
+++ b/results/by_outcome/full_results_education_observed_Sisters_MI.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">Outcome</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t xml:space="preserve">Upper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diff</t>
   </si>
 </sst>
 </file>
@@ -483,10 +489,10 @@
         <v>#NUM!</v>
       </c>
       <c r="H2" t="n">
-        <v>0.580913366522763</v>
+        <v>0.579846880475221</v>
       </c>
       <c r="I2" t="n">
-        <v>0.193973483700182</v>
+        <v>0.195069399568557</v>
       </c>
       <c r="J2" t="e">
         <v>#NUM!</v>
@@ -504,7 +510,7 @@
         <v>#NUM!</v>
       </c>
       <c r="O2" t="n">
-        <v>0.419292173058898</v>
+        <v>0.420358176900945</v>
       </c>
     </row>
     <row r="3">
@@ -524,10 +530,10 @@
         <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>0.567348953574101</v>
+        <v>0.566699311087391</v>
       </c>
       <c r="G3" t="n">
-        <v>0.239078265098996</v>
+        <v>0.239638189001121</v>
       </c>
       <c r="H3" t="e">
         <v>#NUM!</v>
@@ -562,13 +568,13 @@
         <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>0.603975554745592</v>
+        <v>0.604017668620019</v>
       </c>
       <c r="D4" t="n">
-        <v>0.396378393439593</v>
+        <v>0.396336098359715</v>
       </c>
       <c r="E4" t="n">
-        <v>1.00035394818519</v>
+        <v>1.00035376697973</v>
       </c>
       <c r="F4" t="e">
         <v>#NUM!</v>
@@ -583,19 +589,19 @@
         <v>#NUM!</v>
       </c>
       <c r="J4" t="n">
-        <v>0.396238145549144</v>
+        <v>0.396195937348151</v>
       </c>
       <c r="K4" t="n">
-        <v>0.238993672765317</v>
+        <v>0.23955344255306</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0135596136053715</v>
+        <v>-0.0131429199648666</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0230540275097533</v>
+        <v>0.0241622395527943</v>
       </c>
       <c r="N4" t="n">
-        <v>0.225434059159945</v>
+        <v>0.226410522588194</v>
       </c>
       <c r="O4" t="e">
         <v>#NUM!</v>
@@ -631,6 +637,9 @@
       <c r="E1" t="s">
         <v>22</v>
       </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -640,13 +649,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0.396238145549144</v>
+        <v>0.396195937348151</v>
       </c>
       <c r="D2" t="n">
-        <v>0.337188975695219</v>
+        <v>0.340431719202329</v>
       </c>
       <c r="E2" t="n">
-        <v>0.45528731540307</v>
+        <v>0.451960155493973</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0000000000000000000000000000000000000000000445084316777889</v>
       </c>
     </row>
     <row r="3">
@@ -657,13 +669,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.225434059159945</v>
+        <v>0.226410522588194</v>
       </c>
       <c r="D3" t="n">
-        <v>0.165366293271668</v>
+        <v>0.170733931342255</v>
       </c>
       <c r="E3" t="n">
-        <v>0.285501825048223</v>
+        <v>0.282087113834132</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.00000000000000303628781463606</v>
       </c>
     </row>
     <row r="4">
@@ -674,13 +689,36 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>0.419292173058898</v>
+        <v>0.420358176900945</v>
       </c>
       <c r="D4" t="n">
-        <v>0.355470570506988</v>
+        <v>0.361593897065421</v>
       </c>
       <c r="E4" t="n">
-        <v>0.483113775610807</v>
+        <v>0.479122456736469</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.00000000000000000000000000000000000000000209310622122353</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.193947654312751</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.156271461415074</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.231623847210429</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0000000000000000000000159396686282414</v>
       </c>
     </row>
   </sheetData>
